--- a/EmailAssignment/AssignedEmail.xlsx
+++ b/EmailAssignment/AssignedEmail.xlsx
@@ -74,6 +74,192 @@
     <x:t>Thắc mắc thời gian nhận hàng</x:t>
   </x:si>
   <x:si>
+    <x:t>Negative</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chase delivery</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu, 09 Oct 2025 21:39:24 +0700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Đơn hỏa tốc chưa đến</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Mình chuyển khoản đặt đơn hàng #452236 từ 3 ngày trước rồi mà sao không
+thấy ship hàng đến vậy nhỉ? Trong khi shop hẹn mình chỉ 1 ngày ship hỏa tốc
+là tới mà?
+Nếu shop nhận được email này, mong các bạn phản hồi lại mình ngay vì mình
+đang cần gấp sản phẩm này!
+Chúc các bạn ngày mới!
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Others</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu, 09 Oct 2025 21:39:09 +0700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>You made my day</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Chào shop,
+Mình vừa nhận được đơn hàng, đóng gói cẩn thận lắm! Sản phẩm đẹp hơn ảnh
+nữa. Nhân viên giao hàng rất lịch sự. Mình rất hài lòng, sẽ giới thiệu bạn
+bè mua ở shop nhé!
+Cảm ơn shop!
+Nguyên Thảo.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Positive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Compliment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu, 09 Oct 2025 21:38:46 +0700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phản ánh nhân viên bán hàng</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Chào shop,
+Hôm qua mình đến cửa hàng ở Gò Vấp, nhân viên tên Hùng phục vụ rất thô lỗ.
+Mình hỏi về sản phẩm thì nhân viên không hỗ trợ, nói "không mua thì đừng có
+hỏi". Thái độ như vậy dễ mất khách lắm đó!
+Mong shop xử lý nghiêm túc TH này..
+Cảm ơn shop
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu, 09 Oct 2025 21:38:22 +0700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hỏi về hóa đơn đỏ</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Bên shop ơi,
+Em mua hàng hôm 20/09 mã đơn #DH67890, em cần xuất hóa đơn VAT cho công ty.
+Bên shop xuất được không ạ? Phí bao nhiêu và bao lâu có hóa đơn?
+Best regards,
+Thương Hiền.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Neutral</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu, 09 Oct 2025 21:38:03 +0700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Có chương trình giảm giá tháng 10 không?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Chào bên em,
+Chị là khách hàng thân thiết của shop (đã đồng hành cũng hơn 2 năm rồi).
+Nghe nói tháng 10 có đợt sale lớn, shop có gửi mã giảm giá cho chị không?
+Chị đang muốn mua laptop Dell cho con học.
+Cảm ơn em!
+Thương Lê.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu, 09 Oct 2025 21:37:43 +0700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Giao hàng muộn và sản phẩm bị hư</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Mình đặt hàng mã #DH12345 từ ngày 25/09, hẹn giao 28/09 nhưng đến giờ vẫn
+chưa thấy. Gọi hotline mãi không ai bắt máy. Hôm qua nhận được thì thấy hộp
+bị móp méo, sản phẩm bên trong bị vỡ luôn.
+Mình cần hoàn tiền NGAY! Dịch vụ tệ quá, hy vọng xem xét lại và cải thiện
+ngày dịch vụ CSKH của mình..
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Return</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu, 09 Oct 2025 21:37:23 +0700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KHIẾU NẠI ĐƠN ĐẶT HÀNG GIAO TRỄ</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Kính gửi bộ phận chăm sóc khách hàng,
+Đơn hàng #45892 của tôi đã đặt từ ngày 28/9 nhưng đến nay vẫn chưa nhận
+được. Tôi đã gọi hotline 2 lần nhưng không ai nghe máy. Tôi thực sự thất
+vọng với dịch vụ lần này. Mong công ty phản hồi và giao hàng sớm nhất có
+thể cho tôi.
+Trân trọng,
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu, 09 Oct 2025 21:37:06 +0700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Giao hàng cho đơn online ở TPHCM</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Chào anh/chị,
+Tôi muốn hỏi về thời gian giao hàng trung bình cho các đơn online ở TP.HCM.
+Ngoài ra, công ty sẽ hỗ trợ đổi size áo nếu tôi không mặc vừa trong vòng
+bao nhiêu ngày? Tôi đã có quay lại video mở hàng nên mong nhận được phản
+hồi sớm từ công ty.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu, 09 Oct 2025 21:36:44 +0700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YÊU CẦU BÁO GIÁ CHO SẢN PHẨM SƠ MI CỦA QUÝ CÔNG TY</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Xin chào,
+Tôi rất quan tâm đến mẫu áo sơ mi nam mới ra mắt của công ty. Sản phẩm
+trông rất đẹp và có nhiều màu sắc phong phú. Shop có thể gửi giúp tôi bảng
+giá và thông tin chi tiết không? Tôi cũng muốn biết có chương trình ưu đãi
+nào cho đơn hàng trên 10 chiếc không vậy?
+Rất mong nhận được phản hồi từ các bạn!
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quotation</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">Xin chào shop,
 Mình có đặt mua đơn hàng giao hỏa tốc đã thanh toán với mã đơn là
 #13522164, giao liền trong hôm qua nhưng tại sao đến tận bây giờ vẫn chưa
@@ -82,192 +268,6 @@
 Mong shop xem lại đơn hàng và cách quản lý đơn hàng nhé
 Thân!
 </x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu, 09 Oct 2025 21:39:24 +0700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Đơn hỏa tốc chưa đến</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Mình chuyển khoản đặt đơn hàng #452236 từ 3 ngày trước rồi mà sao không
-thấy ship hàng đến vậy nhỉ? Trong khi shop hẹn mình chỉ 1 ngày ship hỏa tốc
-là tới mà?
-Nếu shop nhận được email này, mong các bạn phản hồi lại mình ngay vì mình
-đang cần gấp sản phẩm này!
-Chúc các bạn ngày mới!
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu, 09 Oct 2025 21:39:09 +0700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>You made my day</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Chào shop,
-Mình vừa nhận được đơn hàng, đóng gói cẩn thận lắm! Sản phẩm đẹp hơn ảnh
-nữa. Nhân viên giao hàng rất lịch sự. Mình rất hài lòng, sẽ giới thiệu bạn
-bè mua ở shop nhé!
-Cảm ơn shop!
-Nguyên Thảo.
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu, 09 Oct 2025 21:38:46 +0700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Phản ánh nhân viên bán hàng</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Chào shop,
-Hôm qua mình đến cửa hàng ở Gò Vấp, nhân viên tên Hùng phục vụ rất thô lỗ.
-Mình hỏi về sản phẩm thì nhân viên không hỗ trợ, nói "không mua thì đừng có
-hỏi". Thái độ như vậy dễ mất khách lắm đó!
-Mong shop xử lý nghiêm túc TH này..
-Cảm ơn shop
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu, 09 Oct 2025 21:38:22 +0700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hỏi về hóa đơn đỏ</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Bên shop ơi,
-Em mua hàng hôm 20/09 mã đơn #DH67890, em cần xuất hóa đơn VAT cho công ty.
-Bên shop xuất được không ạ? Phí bao nhiêu và bao lâu có hóa đơn?
-Best regards,
-Thương Hiền.
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu, 09 Oct 2025 21:38:03 +0700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Có chương trình giảm giá tháng 10 không?</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Chào bên em,
-Chị là khách hàng thân thiết của shop (đã đồng hành cũng hơn 2 năm rồi).
-Nghe nói tháng 10 có đợt sale lớn, shop có gửi mã giảm giá cho chị không?
-Chị đang muốn mua laptop Dell cho con học.
-Cảm ơn em!
-Thương Lê.
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu, 09 Oct 2025 21:37:43 +0700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Giao hàng muộn và sản phẩm bị hư</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Mình đặt hàng mã #DH12345 từ ngày 25/09, hẹn giao 28/09 nhưng đến giờ vẫn
-chưa thấy. Gọi hotline mãi không ai bắt máy. Hôm qua nhận được thì thấy hộp
-bị móp méo, sản phẩm bên trong bị vỡ luôn.
-Mình cần hoàn tiền NGAY! Dịch vụ tệ quá, hy vọng xem xét lại và cải thiện
-ngày dịch vụ CSKH của mình..
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu, 09 Oct 2025 21:37:23 +0700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KHIẾU NẠI ĐƠN ĐẶT HÀNG GIAO TRỄ</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Kính gửi bộ phận chăm sóc khách hàng,
-Đơn hàng #45892 của tôi đã đặt từ ngày 28/9 nhưng đến nay vẫn chưa nhận
-được. Tôi đã gọi hotline 2 lần nhưng không ai nghe máy. Tôi thực sự thất
-vọng với dịch vụ lần này. Mong công ty phản hồi và giao hàng sớm nhất có
-thể cho tôi.
-Trân trọng,
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu, 09 Oct 2025 21:37:06 +0700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Giao hàng cho đơn online ở TPHCM</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Chào anh/chị,
-Tôi muốn hỏi về thời gian giao hàng trung bình cho các đơn online ở TP.HCM.
-Ngoài ra, công ty sẽ hỗ trợ đổi size áo nếu tôi không mặc vừa trong vòng
-bao nhiêu ngày? Tôi đã có quay lại video mở hàng nên mong nhận được phản
-hồi sớm từ công ty.
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu, 09 Oct 2025 21:36:44 +0700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YÊU CẦU BÁO GIÁ CHO SẢN PHẨM SƠ MI CỦA QUÝ CÔNG TY</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Xin chào,
-Tôi rất quan tâm đến mẫu áo sơ mi nam mới ra mắt của công ty. Sản phẩm
-trông rất đẹp và có nhiều màu sắc phong phú. Shop có thể gửi giúp tôi bảng
-giá và thông tin chi tiết không? Tôi cũng muốn biết có chương trình ưu đãi
-nào cho đơn hàng trên 10 chiếc không vậy?
-Rất mong nhận được phản hồi từ các bạn!
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Negative</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chase delivery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Others</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Positive</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Compliment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Neutral</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Return</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Quotation</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -685,30 +685,30 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
       <x:c r="H2" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I2" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K2" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L2" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:12" ht="158.4" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A3" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
         <x:v>13</x:v>
@@ -717,36 +717,36 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H3" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I3" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J3" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K3" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L3" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:12" ht="158.4" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A4" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
         <x:v>13</x:v>
@@ -755,36 +755,36 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H4" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I4" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J4" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K4" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L4" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:12" ht="172.75" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A5" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
         <x:v>13</x:v>
@@ -793,36 +793,36 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G5" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H5" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I5" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J5" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K5" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L5" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:12" ht="172.75" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A6" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
         <x:v>13</x:v>
@@ -831,36 +831,36 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G6" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H6" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I6" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J6" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K6" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L6" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:12" ht="172.75" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A7" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
         <x:v>13</x:v>
@@ -869,36 +869,36 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G7" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H7" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I7" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J7" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K7" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L7" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A8" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
         <x:v>13</x:v>
@@ -907,36 +907,36 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G8" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H8" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I8" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J8" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K8" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L8" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:12" ht="158.4" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A9" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
         <x:v>13</x:v>
@@ -945,36 +945,36 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G9" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H9" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I9" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J9" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K9" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L9" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:12" ht="129.65" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A10" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
         <x:v>13</x:v>
@@ -983,36 +983,36 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I10" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J10" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K10" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L10" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:12" ht="172.75" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A11" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
         <x:v>13</x:v>
@@ -1021,31 +1021,31 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I11" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J11" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K11" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L11" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/EmailAssignment/AssignedEmail.xlsx
+++ b/EmailAssignment/AssignedEmail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\UiPath\EmailAutomationRPA\EmailAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5324D4B-50AE-471E-93F9-F7FD8D55A653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB66451D-F3A3-41B7-B4AE-0B7C268A02AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -41,66 +41,80 @@
     <x:t>Body_Email</x:t>
   </x:si>
   <x:si>
+    <x:t>Sentiment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Department</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assign to</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Keeptrack</x:t>
+  </x:si>
+  <x:si>
     <x:t>1</x:t>
   </x:si>
   <x:si>
+    <x:t>Nguyên Lê Trần Thảo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nguyenltt22411@st.uel.edu.vn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun, 12 Oct 2025 20:48:54 +0700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thắc mắc về giá áo</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Chào shop,
+Mình đang muốn mua áo thun bên các bạn nhưng hiện đang không biết giá bán ở
+shop ntn? Mong các bạn hỗ trợ cung cấp bảng giá giúp mình
+cảm ơn shop
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Positive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Collaboration</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marketing</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sat, 11 Oct 2025 13:30:48 +0700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thắc mắc thời gian nhận hàng</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Negative</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Others</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Customer Service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
     <x:t>Thảo Nguyên Lê Trần</x:t>
   </x:si>
   <x:si>
     <x:t>letranthaonguyen1312004@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun, 05 Oct 2025 23:28:59 +0700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xác nhận đã chuyển khoản</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Chào phòng kế toán,
-Mình vừa chuyển khoản 15.500.000đ cho đơn hàng #DH88888 mua số lượng lớn áo
-sơ mi sỉ. Mã giao dịch: FT24100512345. Shop kiểm tra và xác nhận giúp mình
-nhé, mình cần gấp để ship hàng trong hôm nay hoặc ngày mai.
-Cảm ơn shop!
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun, 05 Oct 2025 23:27:20 +0700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Muốn review sản phẩm cho shop</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Chào shop,
-Mình là Linh, có kênh YouTube 20k subscribers về Fashion. Mình thấy sản
-phẩm áo sơ mi mới của shop rất trendy, mình muốn làm video review để giới
-thiệu đến người xem. Shop có thể gửi tặng sản phẩm để mình test không ạ?
-Kênh của mình: youtube.com/fashionlingdinh
-Mỗi video trung bình mình đạt 50k views nên shop yên tâm nhé!
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun, 05 Oct 2025 23:24:16 +0700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Đơn hỏa tốc chưa đến</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Mình chuyển khoản đặt đơn hàng #452236 từ 3 ngày trước rồi mà sao không
-thấy ship hàng đến vậy nhỉ? Trong khi shop hẹn mình chỉ 1 ngày ship hỏa tốc
-là tới mà?
-Nếu shop nhận được email này, mong các bạn phản hồi lại mình ngay vì mình
-đang cần gấp sản phẩm này!
-Chúc các bạn ngày mới!
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
   </x:si>
   <x:si>
     <x:t>Sun, 05 Oct 2025 23:21:29 +0700</x:t>
@@ -118,6 +132,9 @@
 </x:t>
   </x:si>
   <x:si>
+    <x:t>Compliment</x:t>
+  </x:si>
+  <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
@@ -159,6 +176,9 @@
 </x:t>
   </x:si>
   <x:si>
+    <x:t>Neutral</x:t>
+  </x:si>
+  <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
@@ -194,13 +214,10 @@
 </x:t>
   </x:si>
   <x:si>
+    <x:t>Chase delivery</x:t>
+  </x:si>
+  <x:si>
     <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nguyên Lê Trần Thảo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nguyenltt22411@st.uel.edu.vn</x:t>
   </x:si>
   <x:si>
     <x:t>Sun, 05 Oct 2025 23:07:12 +0700</x:t>
@@ -232,6 +249,16 @@
 Ngoài ra, công ty sẽ hỗ trợ đổi size áo nếu tôi không mặc vừa trong vòng
 bao nhiêu ngày? Tôi đã có quay lại video mở hàng nên mong nhận được phản
 hồi sớm từ công ty.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Xin chào shop,
+Mình có đặt mua đơn hàng giao hỏa tốc đã thanh toán với mã đơn là
+#13522164, giao liền trong hôm qua nhưng tại sao đến tận bây giờ vẫn chưa
+thấy đơn? Mình đã gọi vô số lần lên hotline nhưng mãi mà không liên lạc
+được với nhân viên
+Mong shop xem lại đơn hàng và cách quản lý đơn hàng nhé
+Thân!
 </x:t>
   </x:si>
 </x:sst>
@@ -250,7 +277,6 @@
       <x:family val="2"/>
     </x:font>
     <x:font>
-      <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
@@ -280,13 +306,16 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <x:alignment vertical="center" wrapText="1"/>
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
@@ -592,24 +621,29 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F11"/>
+  <x:dimension ref="A1:K10"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="F2" sqref="F2"/>
+      <x:selection activeCell="C2" sqref="C2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.726562" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <x:cols>
     <x:col min="1" max="1" width="8.726562" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="14.726562" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="22.90625" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="14.179688" style="1" customWidth="1"/>
     <x:col min="4" max="4" width="15.90625" style="1" customWidth="1"/>
     <x:col min="5" max="5" width="14.726562" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="43.542969" style="1" customWidth="1"/>
-    <x:col min="7" max="16384" width="8.726562" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="45.816406" style="1" customWidth="1"/>
+    <x:col min="7" max="7" width="9.269531" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="12.816406" style="1" customWidth="1"/>
+    <x:col min="9" max="9" width="10.90625" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="11" width="9.269531" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="12" max="16384" width="8.726562" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <x:row r="1" spans="1:11" ht="15.5" customHeight="1" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -628,211 +662,341 @@
       <x:c r="F1" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="G1" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:6" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
+    <x:row r="2" spans="1:11" ht="188.5" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A2" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E2" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F2" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I2" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K2" s="1" t="s">
+        <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:6" ht="188.5" customHeight="1" x14ac:dyDescent="0.35">
+    <x:row r="3" spans="1:11" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A3" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B3" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H3" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I3" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J3" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K3" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:11" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A4" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F4" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H4" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I4" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J4" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K4" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:11" ht="174" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A5" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F5" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G5" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H5" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I5" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J5" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K5" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:11" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A6" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F6" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G6" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H6" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I6" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J6" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K6" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:11" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A7" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F7" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G7" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H7" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I7" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J7" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K7" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:11" ht="145" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A8" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F8" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G8" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H8" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I8" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J8" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K8" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:11" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A9" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E3" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="s">
-        <x:v>15</x:v>
+      <x:c r="D9" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F9" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G9" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H9" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I9" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J9" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K9" s="1" t="s">
+        <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:6" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A4" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A5" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D5" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E5" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F5" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6" ht="174" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A6" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="s">
+    <x:row r="10" spans="1:11" ht="130.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A10" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E10" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F10" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="G10" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H10" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I10" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="D6" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E6" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="F6" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:6" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A7" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D7" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E7" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F7" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:6" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A8" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C8" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D8" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E8" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F8" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:6" ht="145" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A9" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B9" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D9" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E9" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="F9" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:6" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A10" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C10" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D10" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E10" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="F10" s="1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:6" ht="130.5" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A11" s="1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B11" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C11" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D11" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E11" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="F11" s="1" t="s">
-        <x:v>51</x:v>
+      <x:c r="J10" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K10" s="1" t="s">
+        <x:v>20</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/EmailAssignment/AssignedEmail.xlsx
+++ b/EmailAssignment/AssignedEmail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\UiPath\EmailAutomationRPA\EmailAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB66451D-F3A3-41B7-B4AE-0B7C268A02AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD956336-1BFF-4FFE-BAC2-A37FC3F430E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -50,13 +50,16 @@
     <x:t>Department</x:t>
   </x:si>
   <x:si>
-    <x:t>Assign to</x:t>
+    <x:t>Assign_to</x:t>
   </x:si>
   <x:si>
     <x:t>Keeptrack</x:t>
   </x:si>
   <x:si>
-    <x:t>1</x:t>
+    <x:t>Time_Assigned</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deadline</x:t>
   </x:si>
   <x:si>
     <x:t>Nguyên Lê Trần Thảo</x:t>
@@ -78,73 +81,22 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>Positive</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Collaboration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marketing</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sat, 11 Oct 2025 13:30:48 +0700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thắc mắc thời gian nhận hàng</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Negative</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Others</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Customer Service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thảo Nguyên Lê Trần</x:t>
-  </x:si>
-  <x:si>
-    <x:t>letranthaonguyen1312004@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun, 05 Oct 2025 23:21:29 +0700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>You made my day</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Chào shop,
-Mình vừa nhận được đơn hàng, đóng gói cẩn thận lắm! Sản phẩm đẹp hơn ảnh
-nữa. Nhân viên giao hàng rất lịch sự. Mình rất hài lòng, sẽ giới thiệu bạn
-bè mua ở shop nhé!
-Cảm ơn shop!
-Nguyên Thảo.
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Compliment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lê Trần Hiền Thương</x:t>
-  </x:si>
-  <x:si>
-    <x:t>letranthaonguyen9a1kbang@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun, 05 Oct 2025 23:20:03 +0700</x:t>
+    <x:t>Neutral</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quotation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sales</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assigned</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-10-13 13:09:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu, 09 Oct 2025 21:38:46 +0700</x:t>
   </x:si>
   <x:si>
     <x:t>Phản ánh nhân viên bán hàng</x:t>
@@ -159,10 +111,22 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun, 05 Oct 2025 23:18:14 +0700</x:t>
+    <x:t>Negative</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Others</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Customer Service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nguyenbd22411@st.uel.edu.vn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-10-13 13:09:54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu, 09 Oct 2025 21:38:22 +0700</x:t>
   </x:si>
   <x:si>
     <x:t>Hỏi về hóa đơn đỏ</x:t>
@@ -176,13 +140,10 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>Neutral</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun, 05 Oct 2025 23:16:38 +0700</x:t>
+    <x:t>2025-10-13 13:09:56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu, 09 Oct 2025 21:38:03 +0700</x:t>
   </x:si>
   <x:si>
     <x:t>Có chương trình giảm giá tháng 10 không?</x:t>
@@ -197,10 +158,10 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun, 05 Oct 2025 23:15:00 +0700</x:t>
+    <x:t>2025-10-13 13:09:58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu, 09 Oct 2025 21:37:43 +0700</x:t>
   </x:si>
   <x:si>
     <x:t>Giao hàng muộn và sản phẩm bị hư</x:t>
@@ -217,10 +178,10 @@
     <x:t>Chase delivery</x:t>
   </x:si>
   <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun, 05 Oct 2025 23:07:12 +0700</x:t>
+    <x:t>2025-10-13 13:10:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu, 09 Oct 2025 21:37:23 +0700</x:t>
   </x:si>
   <x:si>
     <x:t>KHIẾU NẠI ĐƠN ĐẶT HÀNG GIAO TRỄ</x:t>
@@ -235,10 +196,10 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun, 05 Oct 2025 23:03:37 +0700</x:t>
+    <x:t>2025-10-13 13:10:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu, 09 Oct 2025 21:37:06 +0700</x:t>
   </x:si>
   <x:si>
     <x:t>Giao hàng cho đơn online ở TPHCM</x:t>
@@ -252,14 +213,31 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Xin chào shop,
-Mình có đặt mua đơn hàng giao hỏa tốc đã thanh toán với mã đơn là
-#13522164, giao liền trong hôm qua nhưng tại sao đến tận bây giờ vẫn chưa
-thấy đơn? Mình đã gọi vô số lần lên hotline nhưng mãi mà không liên lạc
-được với nhân viên
-Mong shop xem lại đơn hàng và cách quản lý đơn hàng nhé
-Thân!
+    <x:t>2025-10-13 13:10:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu, 09 Oct 2025 21:36:44 +0700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YÊU CẦU BÁO GIÁ CHO SẢN PHẨM SƠ MI CỦA QUÝ CÔNG TY</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Xin chào,
+Tôi rất quan tâm đến mẫu áo sơ mi nam mới ra mắt của công ty. Sản phẩm
+trông rất đẹp và có nhiều màu sắc phong phú. Shop có thể gửi giúp tôi bảng
+giá và thông tin chi tiết không? Tôi cũng muốn biết có chương trình ưu đãi
+nào cho đơn hàng trên 10 chiếc không vậy?
+Rất mong nhận được phản hồi từ các bạn!
 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Positive</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>2025-10-13 13:10:06</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -269,7 +247,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
+  <x:fonts count="3" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -279,6 +257,11 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:sz val="8"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>
@@ -300,13 +283,16 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment vertical="center" wrapText="1"/>
@@ -316,6 +302,10 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
@@ -621,10 +611,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K10"/>
+  <x:dimension ref="A1:M11"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C2" sqref="C2"/>
+    <x:sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <x:selection activeCell="N3" sqref="N3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.726562" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -638,12 +628,14 @@
     <x:col min="7" max="7" width="9.269531" style="1" bestFit="1" customWidth="1"/>
     <x:col min="8" max="8" width="12.816406" style="1" customWidth="1"/>
     <x:col min="9" max="9" width="10.90625" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="16.542969" style="1" bestFit="1" customWidth="1"/>
     <x:col min="11" max="11" width="9.269531" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="12" max="16384" width="8.726562" style="1" customWidth="1"/>
+    <x:col min="12" max="12" width="13.363281" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="13" max="13" width="15.542969" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="14" max="16384" width="8.726562" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:11" ht="15.5" customHeight="1" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <x:row r="1" spans="1:13" ht="15.5" customHeight="1" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -677,323 +669,371 @@
       <x:c r="K1" s="3" t="s">
         <x:v>10</x:v>
       </x:c>
+      <x:c r="L1" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:11" ht="188.5" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A2" s="1" t="s">
-        <x:v>11</x:v>
+    <x:row r="2" spans="1:13" ht="116" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A2" s="1">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I2" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="K2" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L2" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M2" s="4">
+        <x:v>45946.5484722222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:13" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A3" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D2" s="1" t="s">
+      <x:c r="C3" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="E2" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F2" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H2" s="1" t="s">
+      <x:c r="D3" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H3" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I3" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J3" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="K3" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L3" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M3" s="4">
+        <x:v>45946.5485185185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A4" s="1">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F4" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="I2" s="1" t="s">
+      <x:c r="H4" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I4" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J4" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="K4" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L4" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="M4" s="4">
+        <x:v>45946.5485416667</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:13" ht="145" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A5" s="1">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F5" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G5" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H5" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I5" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J5" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="K5" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L5" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="M5" s="4">
+        <x:v>45946.5485648148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:13" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A6" s="1">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F6" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G6" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H6" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I6" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J6" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="K6" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L6" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="M6" s="4">
+        <x:v>45946.548587963</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A7" s="1">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F7" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G7" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H7" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I7" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J7" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="K7" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L7" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="M7" s="4">
+        <x:v>45946.5486111111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A8" s="1">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F8" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G8" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H8" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I8" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J8" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="K8" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L8" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="M8" s="4">
+        <x:v>45946.5486342593</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:13" ht="174" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A9" s="1">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F9" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G9" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H9" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="J2" s="1" t="s">
+      <x:c r="I9" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="K2" s="1" t="s">
-        <x:v>20</x:v>
+      <x:c r="J9" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="K9" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L9" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="M9" s="4">
+        <x:v>45946.5486574074</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:11" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A3" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D3" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H3" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="I3" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="J3" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="K3" s="1" t="s">
-        <x:v>20</x:v>
+    <x:row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <x:c r="G10" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H10" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I10" s="1" t="s">
+        <x:v>56</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:11" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A4" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G4" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H4" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="I4" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="J4" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="K4" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:11" ht="174" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A5" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D5" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E5" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="F5" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G5" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H5" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="I5" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="J5" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="K5" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:11" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A6" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D6" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="E6" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F6" s="1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="G6" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H6" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="I6" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="J6" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="K6" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:11" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A7" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D7" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E7" s="1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F7" s="1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="G7" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H7" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="I7" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="J7" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="K7" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:11" ht="145" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A8" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C8" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D8" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="E8" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F8" s="1" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G8" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H8" s="1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="I8" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="J8" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="K8" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:11" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A9" s="1" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B9" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D9" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="E9" s="1" t="s">
+    <x:row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <x:c r="I11" s="1" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="F9" s="1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="G9" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H9" s="1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="I9" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="J9" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="K9" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:11" ht="130.5" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A10" s="1" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C10" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D10" s="1" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="E10" s="1" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F10" s="1" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="G10" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H10" s="1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="I10" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="J10" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="K10" s="1" t="s">
-        <x:v>20</x:v>
+      <x:c r="J11" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="K11" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="L11" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="M11" s="1" t="s">
+        <x:v>56</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:phoneticPr fontId="2" type="noConversion"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>

--- a/EmailAssignment/AssignedEmail.xlsx
+++ b/EmailAssignment/AssignedEmail.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHAM HAI LONG\Documents\UiPath\EmailAutomationRPA\EmailAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAE6053-19F8-4A96-A673-41CDFBB7B836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F410553-6C02-4B4C-B551-81D1D17A2BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="14-10-2025" sheetId="1" r:id="rId1"/>
+    <x:sheet name="15-10-2025" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="0"/>
@@ -56,79 +57,16 @@
     <x:t>Department</x:t>
   </x:si>
   <x:si>
-    <x:t>Keyword</x:t>
-  </x:si>
-  <x:si>
     <x:t>Keeptrack</x:t>
   </x:si>
   <x:si>
     <x:t>Deadline</x:t>
   </x:si>
   <x:si>
+    <x:t>ReminderCount</x:t>
+  </x:si>
+  <x:si>
     <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Michael from Cursor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>michael@mail.cursor.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tue, 14 Oct 2025 09:38:40 +0000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New in Cursor: Plan Mode, Slash Commands, and more</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Hello,
-It’s been a busy month with new features and quality-of-life improvements to Cursor!
-*********
-Plan Mode
-*********
-Plan Mode ( https://cursor.com/docs/agent/planning#plan-mode ) does deep research into your codebase, reading files and asking clarifying questions to create a detailed plan before writing any code. You can review and refine the plan before handing it to Cursor to execute.
-We’ve found that this allows agents to run for significantly longer.
-**************
-Slash Commands
-**************
-You can now create reusable prompts and quickly share them with your team. Commands ( https://cursor.com/docs/agent/chat/commands ) are stored in .cursor/commands/[command].md. Run them by typing /  in the Agent input and selecting the command from the dropdown menu.
-We’ve been using them for running linters, fixing compile errors, and creating PRs with detailed descriptions and conventional commits.
-****************
-Browser Controls
-****************
-Agent can control a web browser ( https://cursor.com/docs/agent/browser ) to test applications, audit accessibility, convert designs into code, and more. With full access to console logs and network traffic, Agent can debug issues and automate comprehensive testing workflows.
-Start using with @Browser.
-************************
-PR Summaries from Bugbot
-************************
-When creating a PR in GitHub, Bugbot ( https://cursor.com/bugbot ) will now generate a summary of the changes. The summary will be updated as you push changes so it's always up-to-date.
-Let us know any feedback you have!
-- Cursor Team
-Unsubscribe ( https://track.customer.io/unsubscribe/dgT_pwsDAM_bxBbO28QWAZnfGSCLVEiQ_IEe5TH2Aw== )
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Positive</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Collaboration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>longph22411@st.uel.edu.vn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-10-14 20:56:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BD</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>Assigned</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
   </x:si>
   <x:si>
     <x:t>Nguyên Lê Trần Thảo</x:t>
@@ -162,13 +100,13 @@
     <x:t>nguyenbd22411@st.uel.edu.vn</x:t>
   </x:si>
   <x:si>
-    <x:t>2025-10-14 20:56:02</x:t>
-  </x:si>
-  <x:si>
     <x:t>Customer Service</x:t>
   </x:si>
   <x:si>
-    <x:t>3</x:t>
+    <x:t>Done</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
   </x:si>
   <x:si>
     <x:t>Sun, 12 Oct 2025 20:48:54 +0700</x:t>
@@ -190,22 +128,22 @@
     <x:t>Quotation</x:t>
   </x:si>
   <x:si>
-    <x:t>2025-10-14 20:56:03</x:t>
-  </x:si>
-  <x:si>
     <x:t>Sales</x:t>
   </x:si>
   <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sat, 11 Oct 2025 13:30:48 +0700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assigned</x:t>
+  </x:si>
+  <x:si>
     <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sat, 11 Oct 2025 13:30:48 +0700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-10-14 20:56:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
   </x:si>
   <x:si>
     <x:t>Thu, 09 Oct 2025 21:39:44 +0700</x:t>
@@ -223,10 +161,19 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>2025-10-14 20:56:07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
+    <x:t>Positive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Collaboration</x:t>
+  </x:si>
+  <x:si>
+    <x:t>longph22411@st.uel.edu.vn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
   </x:si>
   <x:si>
     <x:t>Thu, 09 Oct 2025 21:39:24 +0700</x:t>
@@ -247,10 +194,10 @@
     <x:t>Others</x:t>
   </x:si>
   <x:si>
-    <x:t>2025-10-14 20:56:09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
+    <x:t>2025-10-14 23:27:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
   </x:si>
   <x:si>
     <x:t>Thu, 09 Oct 2025 21:39:09 +0700</x:t>
@@ -271,10 +218,10 @@
     <x:t>Compliment</x:t>
   </x:si>
   <x:si>
-    <x:t>2025-10-14 20:56:11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
+    <x:t>2025-10-14 23:27:09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
   </x:si>
   <x:si>
     <x:t>Thu, 09 Oct 2025 21:38:46 +0700</x:t>
@@ -292,10 +239,10 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>2025-10-14 20:56:13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
+    <x:t>2025-10-14 23:27:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
   </x:si>
   <x:si>
     <x:t>Thu, 09 Oct 2025 21:38:22 +0700</x:t>
@@ -312,10 +259,10 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>2025-10-14 20:56:15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
+    <x:t>2025-10-14 23:27:12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
   </x:si>
   <x:si>
     <x:t>Thu, 09 Oct 2025 21:38:03 +0700</x:t>
@@ -333,10 +280,10 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>2025-10-14 20:56:17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
+    <x:t>2025-10-14 23:27:14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
   </x:si>
   <x:si>
     <x:t>Thu, 09 Oct 2025 21:37:43 +0700</x:t>
@@ -353,10 +300,10 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>2025-10-14 20:56:19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
+    <x:t>2025-10-14 23:27:16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
   </x:si>
   <x:si>
     <x:t>Thu, 09 Oct 2025 21:37:23 +0700</x:t>
@@ -374,10 +321,10 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>2025-10-14 20:56:21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
+    <x:t>2025-10-14 23:27:18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
   </x:si>
   <x:si>
     <x:t>Thu, 09 Oct 2025 21:37:06 +0700</x:t>
@@ -394,10 +341,10 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>2025-10-14 20:56:23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
+    <x:t>2025-10-14 23:27:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
   </x:si>
   <x:si>
     <x:t>Thu, 09 Oct 2025 21:36:44 +0700</x:t>
@@ -415,7 +362,13 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>2025-10-14 20:56:24</x:t>
+    <x:t>2025-10-15 00:13:28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-10-15 00:13:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-10-15 00:13:32</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -464,9 +417,8 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <x:alignment vertical="center"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
@@ -772,18 +724,24 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:M15"/>
+  <x:dimension ref="A1:N14"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A4" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <x:selection activeCell="M5" sqref="M5"/>
+    <x:sheetView tabSelected="1" topLeftCell="F5" zoomScale="89" zoomScaleNormal="99" workbookViewId="0">
+      <x:selection activeCell="I5" sqref="I5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
     <x:col min="1" max="5" width="9.097656" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="107.199219" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="17.296875" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="14.398438" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="71.296875" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="9.597656" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="13.199219" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="27.5" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="18" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="11" width="11.097656" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="12" max="12" width="9.199219" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="13" max="13" width="15.796875" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="14" max="14" width="14.296875" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -826,11 +784,11 @@
       <x:c r="M1" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="N1" s="0" t="s">
+      <x:c r="N1" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:14" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:14" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A2" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
@@ -858,592 +816,750 @@
       <x:c r="I2" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="J2" s="1" t="s">
+      <x:c r="J2" s="3">
+        <x:v>45943.9770717593</x:v>
+      </x:c>
+      <x:c r="K2" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="K2" s="1" t="s">
+      <x:c r="L2" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="L2" s="1" t="s">
+      <x:c r="M2" s="3">
+        <x:v>45947.9770023148</x:v>
+      </x:c>
+      <x:c r="N2" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:14" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="M2" s="1" t="s">
+      <x:c r="B3" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="N2" s="3">
-        <x:v>45947.8721527778</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:14" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A3" s="1" t="s">
+      <x:c r="E3" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B3" s="1" t="s">
+      <x:c r="F3" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C3" s="1" t="s">
+      <x:c r="G3" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D3" s="1" t="s">
+      <x:c r="H3" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="E3" s="1" t="s">
+      <x:c r="I3" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J3" s="3">
+        <x:v>45941.9770833333</x:v>
+      </x:c>
+      <x:c r="K3" s="1" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="F3" s="2" t="s">
+      <x:c r="L3" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M3" s="3">
+        <x:v>45947.9770717593</x:v>
+      </x:c>
+      <x:c r="N3" s="1" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="G3" s="1" t="s">
+    </x:row>
+    <x:row r="4" spans="1:14" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="1" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="H3" s="1" t="s">
+      <x:c r="B4" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="I3" s="1" t="s">
+      <x:c r="E4" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H4" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I4" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J4" s="3">
+        <x:v>45944.9771180556</x:v>
+      </x:c>
+      <x:c r="K4" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L4" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="J3" s="1" t="s">
+      <x:c r="M4" s="3">
+        <x:v>45947.9770949074</x:v>
+      </x:c>
+      <x:c r="N4" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:14" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="1" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="K3" s="1" t="s">
+      <x:c r="B5" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="L3" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="M3" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="N3" s="3">
-        <x:v>45947.8722222222</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:14" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A4" s="1" t="s">
+      <x:c r="E5" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="s">
+      <x:c r="F5" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="E4" s="1" t="s">
+      <x:c r="G5" s="1" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="F4" s="2" t="s">
+      <x:c r="H5" s="1" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="G4" s="1" t="s">
+      <x:c r="I5" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="H4" s="1" t="s">
+      <x:c r="J5" s="3">
+        <x:v>45941.9771412037</x:v>
+      </x:c>
+      <x:c r="K5" s="1" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="I4" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="J4" s="1" t="s">
+      <x:c r="L5" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="M5" s="3">
+        <x:v>45947.9771180556</x:v>
+      </x:c>
+      <x:c r="N5" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:14" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="K4" s="1" t="s">
+      <x:c r="B6" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="L4" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="M4" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="N4" s="3">
-        <x:v>45947.8722453704</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:14" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A5" s="1" t="s">
+      <x:c r="E6" s="1" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D5" s="1" t="s">
+      <x:c r="F6" s="2" t="s">
         <x:v>47</x:v>
-      </x:c>
-      <x:c r="E5" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G5" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H5" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="I5" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="J5" s="1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="K5" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="L5" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="M5" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="N5" s="3">
-        <x:v>45947.8722685185</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:14" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A6" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D6" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="E6" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F6" s="2" t="s">
-        <x:v>52</x:v>
       </x:c>
       <x:c r="G6" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H6" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I6" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J6" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="K6" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L6" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="M6" s="3">
+        <x:v>45947.9771412037</x:v>
+      </x:c>
+      <x:c r="N6" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:14" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="K6" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="L6" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="M6" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="N6" s="3">
-        <x:v>45947.8722800926</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:14" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A7" s="1" t="s">
+      <x:c r="G7" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H7" s="1" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D7" s="1" t="s">
+      <x:c r="I7" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J7" s="1" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="E7" s="1" t="s">
+      <x:c r="K7" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L7" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="M7" s="3">
+        <x:v>45947.9771643519</x:v>
+      </x:c>
+      <x:c r="N7" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:14" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A8" s="1" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="F7" s="2" t="s">
+      <x:c r="B8" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="G7" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H7" s="1" t="s">
+      <x:c r="E8" s="1" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="I7" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="J7" s="1" t="s">
+      <x:c r="F8" s="2" t="s">
         <x:v>59</x:v>
-      </x:c>
-      <x:c r="K7" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="L7" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="M7" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="N7" s="3">
-        <x:v>45947.8723032407</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:14" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A8" s="1" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C8" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D8" s="1" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E8" s="1" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="F8" s="2" t="s">
-        <x:v>63</x:v>
       </x:c>
       <x:c r="G8" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H8" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I8" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J8" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="K8" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L8" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="J8" s="1" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="K8" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="L8" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="M8" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="N8" s="3">
-        <x:v>45947.8723263889</x:v>
+      <x:c r="M8" s="3">
+        <x:v>45947.9771875</x:v>
+      </x:c>
+      <x:c r="N8" s="1" t="s">
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:14" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A9" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="G9" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D9" s="1" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E9" s="1" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="F9" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="G9" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
       <x:c r="H9" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I9" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J9" s="1" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="K9" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L9" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="J9" s="1" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="K9" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="L9" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="M9" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="N9" s="3">
-        <x:v>45947.872349537</x:v>
+      <x:c r="M9" s="3">
+        <x:v>45947.9771990741</x:v>
+      </x:c>
+      <x:c r="N9" s="1" t="s">
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:14" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A10" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E10" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G10" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H10" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I10" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J10" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="K10" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L10" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="M10" s="3">
+        <x:v>45947.9772222222</x:v>
+      </x:c>
+      <x:c r="N10" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:14" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A11" s="1" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="B10" s="1" t="s">
+      <x:c r="B11" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E11" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="G11" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H11" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I11" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J11" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="K11" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L11" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="M11" s="3">
+        <x:v>45947.9772453704</x:v>
+      </x:c>
+      <x:c r="N11" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:14" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A12" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E12" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G12" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H12" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I12" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J12" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="K12" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L12" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="M12" s="3">
+        <x:v>45947.9772685185</x:v>
+      </x:c>
+      <x:c r="N12" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:14" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A13" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B13" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C13" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E13" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="G13" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H13" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I13" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J13" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="K13" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L13" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="M13" s="3">
+        <x:v>45947.9772916667</x:v>
+      </x:c>
+      <x:c r="N13" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:14" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A14" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B14" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C14" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E14" s="1" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G14" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H14" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I14" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J14" s="3">
+        <x:v>45943.977337963</x:v>
+      </x:c>
+      <x:c r="K14" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="L14" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="M14" s="3">
+        <x:v>45947.9773148148</x:v>
+      </x:c>
+      <x:c r="N14" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:N4"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="E2" workbookViewId="0">
+      <x:selection activeCell="N2" sqref="N2"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:cols>
+    <x:col min="1" max="5" width="9.097656" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="56.199219" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L1" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N1" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:14" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I2" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="K2" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L2" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="M2" s="3">
+        <x:v>45948.0093055556</x:v>
+      </x:c>
+      <x:c r="N2" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:14" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C10" s="1" t="s">
+      <x:c r="G3" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D10" s="1" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="E10" s="1" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="F10" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="G10" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H10" s="1" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="I10" s="1" t="s">
+      <x:c r="H3" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I3" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J3" s="1" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="K3" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="L3" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="J10" s="1" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="K10" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="L10" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="M10" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="N10" s="3">
-        <x:v>45947.8723726852</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:14" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A11" s="1" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="B11" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C11" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D11" s="1" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="E11" s="1" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="F11" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="G11" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H11" s="1" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="I11" s="1" t="s">
+      <x:c r="M3" s="3">
+        <x:v>45948.0093518519</x:v>
+      </x:c>
+      <x:c r="N3" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:14" ht="187.2" customHeight="1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H4" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I4" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J4" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="K4" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L4" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="J11" s="1" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="K11" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="L11" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="M11" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="N11" s="3">
-        <x:v>45947.8723958333</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:14" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A12" s="1" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="B12" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C12" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D12" s="1" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E12" s="1" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="F12" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="G12" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H12" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="I12" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="J12" s="1" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="K12" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="L12" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="M12" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="N12" s="3">
-        <x:v>45947.8724189815</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:14" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A13" s="1" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B13" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C13" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D13" s="1" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="E13" s="1" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="F13" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="G13" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H13" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="I13" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="J13" s="1" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="K13" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="L13" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="M13" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="N13" s="3">
-        <x:v>45947.8724421296</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:14" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A14" s="1" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="B14" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C14" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D14" s="1" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="E14" s="1" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="F14" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="G14" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H14" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="I14" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="J14" s="1" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="K14" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="L14" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="M14" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="N14" s="3">
-        <x:v>45947.8724652778</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:14" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A15" s="1" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B15" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C15" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D15" s="1" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E15" s="1" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="F15" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="G15" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H15" s="1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="I15" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="J15" s="1" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="K15" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="L15" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="M15" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="N15" s="3">
-        <x:v>45947.8724884259</x:v>
+      <x:c r="M4" s="3">
+        <x:v>45948.009375</x:v>
+      </x:c>
+      <x:c r="N4" s="1" t="s">
+        <x:v>32</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/EmailAssignment/AssignedEmail.xlsx
+++ b/EmailAssignment/AssignedEmail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHAM HAI LONG\Documents\UiPath\EmailAutomationRPA\EmailAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F410553-6C02-4B4C-B551-81D1D17A2BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C17B51-4602-4477-AB2A-A5F8F3501546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -106,6 +106,9 @@
     <x:t>Done</x:t>
   </x:si>
   <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
@@ -129,9 +132,6 @@
   </x:si>
   <x:si>
     <x:t>Sales</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
   </x:si>
   <x:si>
     <x:t>3</x:t>
@@ -194,9 +194,6 @@
     <x:t>Others</x:t>
   </x:si>
   <x:si>
-    <x:t>2025-10-14 23:27:07</x:t>
-  </x:si>
-  <x:si>
     <x:t>6</x:t>
   </x:si>
   <x:si>
@@ -218,9 +215,6 @@
     <x:t>Compliment</x:t>
   </x:si>
   <x:si>
-    <x:t>2025-10-14 23:27:09</x:t>
-  </x:si>
-  <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
@@ -239,9 +233,6 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>2025-10-14 23:27:10</x:t>
-  </x:si>
-  <x:si>
     <x:t>8</x:t>
   </x:si>
   <x:si>
@@ -257,9 +248,6 @@
 Best regards,
 Thương Hiền.
 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-10-14 23:27:12</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
@@ -280,9 +268,6 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>2025-10-14 23:27:14</x:t>
-  </x:si>
-  <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
@@ -362,13 +347,16 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>2025-10-15 00:13:28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-10-15 00:13:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-10-15 00:13:32</x:t>
+    <x:t>2025-10-15 07:43:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-10-15 07:43:39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-10-15 07:43:41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Overdue - Reported</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -726,8 +714,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:N14"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="F5" zoomScale="89" zoomScaleNormal="99" workbookViewId="0">
-      <x:selection activeCell="I5" sqref="I5"/>
+    <x:sheetView tabSelected="1" topLeftCell="F13" zoomScale="89" zoomScaleNormal="99" workbookViewId="0">
+      <x:selection activeCell="J15" sqref="J15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,12 +817,12 @@
         <x:v>45947.9770023148</x:v>
       </x:c>
       <x:c r="N2" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:14" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A3" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
         <x:v>15</x:v>
@@ -843,19 +831,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H3" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I3" s="1" t="s">
         <x:v>16</x:v>
@@ -864,7 +852,7 @@
         <x:v>45941.9770833333</x:v>
       </x:c>
       <x:c r="K3" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L3" s="1" t="s">
         <x:v>24</x:v>
@@ -873,7 +861,7 @@
         <x:v>45947.9770717593</x:v>
       </x:c>
       <x:c r="N3" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:14" ht="144" customHeight="1" x14ac:dyDescent="0.3">
@@ -905,7 +893,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="J4" s="3">
-        <x:v>45944.9771180556</x:v>
+        <x:v>45943.9771180556</x:v>
       </x:c>
       <x:c r="K4" s="1" t="s">
         <x:v>23</x:v>
@@ -917,7 +905,7 @@
         <x:v>45947.9770949074</x:v>
       </x:c>
       <x:c r="N4" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:14" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -949,7 +937,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="J5" s="3">
-        <x:v>45941.9771412037</x:v>
+        <x:v>45943.9771412037</x:v>
       </x:c>
       <x:c r="K5" s="1" t="s">
         <x:v>43</x:v>
@@ -961,7 +949,7 @@
         <x:v>45947.9771180556</x:v>
       </x:c>
       <x:c r="N5" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -992,8 +980,8 @@
       <x:c r="I6" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="J6" s="1" t="s">
-        <x:v>49</x:v>
+      <x:c r="J6" s="3">
+        <x:v>45943.9771643519</x:v>
       </x:c>
       <x:c r="K6" s="1" t="s">
         <x:v>23</x:v>
@@ -1005,12 +993,12 @@
         <x:v>45947.9771412037</x:v>
       </x:c>
       <x:c r="N6" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:14" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A7" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
         <x:v>15</x:v>
@@ -1019,25 +1007,25 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="E7" s="1" t="s">
+      <x:c r="F7" s="2" t="s">
         <x:v>52</x:v>
-      </x:c>
-      <x:c r="F7" s="2" t="s">
-        <x:v>53</x:v>
       </x:c>
       <x:c r="G7" s="1" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="H7" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I7" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="J7" s="1" t="s">
-        <x:v>55</x:v>
+      <x:c r="J7" s="3">
+        <x:v>45943.9771875</x:v>
       </x:c>
       <x:c r="K7" s="1" t="s">
         <x:v>23</x:v>
@@ -1049,12 +1037,12 @@
         <x:v>45947.9771643519</x:v>
       </x:c>
       <x:c r="N7" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:14" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A8" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
         <x:v>15</x:v>
@@ -1063,13 +1051,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s">
         <x:v>57</x:v>
-      </x:c>
-      <x:c r="E8" s="1" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F8" s="2" t="s">
-        <x:v>59</x:v>
       </x:c>
       <x:c r="G8" s="1" t="s">
         <x:v>20</x:v>
@@ -1080,8 +1068,8 @@
       <x:c r="I8" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="J8" s="1" t="s">
-        <x:v>60</x:v>
+      <x:c r="J8" s="3">
+        <x:v>45943.9771990741</x:v>
       </x:c>
       <x:c r="K8" s="1" t="s">
         <x:v>23</x:v>
@@ -1093,12 +1081,12 @@
         <x:v>45947.9771875</x:v>
       </x:c>
       <x:c r="N8" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:14" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A9" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
         <x:v>15</x:v>
@@ -1107,16 +1095,16 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G9" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H9" s="1" t="s">
         <x:v>48</x:v>
@@ -1124,25 +1112,25 @@
       <x:c r="I9" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="J9" s="1" t="s">
-        <x:v>65</x:v>
+      <x:c r="J9" s="3">
+        <x:v>45942.9772222222</x:v>
       </x:c>
       <x:c r="K9" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L9" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M9" s="3">
         <x:v>45947.9771990741</x:v>
       </x:c>
-      <x:c r="N9" s="1" t="s">
-        <x:v>32</x:v>
+      <x:c r="N9" s="1">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:14" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A10" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
         <x:v>15</x:v>
@@ -1151,16 +1139,16 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
         <x:v>48</x:v>
@@ -1168,25 +1156,25 @@
       <x:c r="I10" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="J10" s="1" t="s">
-        <x:v>70</x:v>
+      <x:c r="J10" s="3">
+        <x:v>45942.9772453704</x:v>
       </x:c>
       <x:c r="K10" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L10" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M10" s="3">
         <x:v>45947.9772222222</x:v>
       </x:c>
-      <x:c r="N10" s="1" t="s">
-        <x:v>32</x:v>
+      <x:c r="N10" s="1">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:14" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A11" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
         <x:v>15</x:v>
@@ -1195,13 +1183,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
         <x:v>20</x:v>
@@ -1213,7 +1201,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="J11" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="K11" s="1" t="s">
         <x:v>23</x:v>
@@ -1225,12 +1213,12 @@
         <x:v>45947.9772453704</x:v>
       </x:c>
       <x:c r="N11" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:14" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A12" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
         <x:v>15</x:v>
@@ -1239,13 +1227,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
         <x:v>20</x:v>
@@ -1257,7 +1245,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="J12" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="K12" s="1" t="s">
         <x:v>23</x:v>
@@ -1269,12 +1257,12 @@
         <x:v>45947.9772685185</x:v>
       </x:c>
       <x:c r="N12" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:14" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A13" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
         <x:v>15</x:v>
@@ -1283,16 +1271,16 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
         <x:v>21</x:v>
@@ -1301,7 +1289,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="J13" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="K13" s="1" t="s">
         <x:v>23</x:v>
@@ -1313,12 +1301,12 @@
         <x:v>45947.9772916667</x:v>
       </x:c>
       <x:c r="N13" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:14" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A14" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
         <x:v>15</x:v>
@@ -1327,31 +1315,31 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="J14" s="3">
-        <x:v>45943.977337963</x:v>
+        <x:v>45942.977337963</x:v>
       </x:c>
       <x:c r="K14" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L14" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M14" s="3">
         <x:v>45947.9773148148</x:v>
@@ -1376,8 +1364,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:N4"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="E2" workbookViewId="0">
-      <x:selection activeCell="N2" sqref="N2"/>
+    <x:sheetView topLeftCell="E1" workbookViewId="0">
+      <x:selection activeCell="L2" sqref="L2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1459,7 +1447,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="K2" s="1" t="s">
         <x:v>23</x:v>
@@ -1468,15 +1456,15 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="M2" s="3">
-        <x:v>45948.0093055556</x:v>
+        <x:v>45947.3218865741</x:v>
       </x:c>
       <x:c r="N2" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:14" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A3" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
         <x:v>15</x:v>
@@ -1485,37 +1473,37 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H3" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I3" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="J3" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="K3" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L3" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="M3" s="3">
-        <x:v>45948.0093518519</x:v>
+        <x:v>45947.3219560185</x:v>
       </x:c>
       <x:c r="N3" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:14" ht="187.2" customHeight="1" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1547,7 +1535,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="J4" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K4" s="1" t="s">
         <x:v>23</x:v>
@@ -1556,10 +1544,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="M4" s="3">
-        <x:v>45948.009375</x:v>
+        <x:v>45947.3219791667</x:v>
       </x:c>
       <x:c r="N4" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/EmailAssignment/AssignedEmail.xlsx
+++ b/EmailAssignment/AssignedEmail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHAM HAI LONG\Documents\UiPath\EmailAutomationRPA\EmailAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B742F8AE-5042-4B3C-B6BD-E7FA51914763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB8CAE0-62B7-4448-874E-92576B294FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="86">
   <si>
     <t>No</t>
   </si>
@@ -346,13 +346,7 @@
 </t>
   </si>
   <si>
-    <t>2025-10-15 07:43:37</t>
-  </si>
-  <si>
-    <t>2025-10-15 07:43:39</t>
-  </si>
-  <si>
-    <t>2025-10-15 07:43:41</t>
+    <t>Overdue - Reported</t>
   </si>
 </sst>
 </file>
@@ -387,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -398,6 +392,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="89" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="89" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1333,16 +1328,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="9.09765625" customWidth="1"/>
-    <col min="6" max="6" width="56.19921875" customWidth="1"/>
+    <col min="6" max="6" width="48.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1389,7 +1384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1417,23 +1412,23 @@
       <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>85</v>
+      <c r="J2" s="3">
+        <v>45943.977071759298</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M2" s="3">
-        <v>45947.3218865741</v>
-      </c>
-      <c r="N2" s="1" t="s">
+        <v>45947.977002314801</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1461,23 +1456,23 @@
       <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>86</v>
+      <c r="J3" s="3">
+        <v>45941.977083333302</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M3" s="3">
-        <v>45947.321956018503</v>
-      </c>
-      <c r="N3" s="1" t="s">
+        <v>45947.977071759298</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1505,8 +1500,8 @@
       <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>87</v>
+      <c r="J4" s="3">
+        <v>45943.977118055598</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>23</v>
@@ -1515,10 +1510,450 @@
         <v>35</v>
       </c>
       <c r="M4" s="3">
-        <v>45947.3219791667</v>
-      </c>
-      <c r="N4" s="1" t="s">
+        <v>45947.977094907401</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="4">
+        <v>45943.977141203701</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="4">
+        <v>45947.977118055598</v>
+      </c>
+      <c r="N5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="4">
+        <v>45943.977164351898</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="4">
+        <v>45947.977141203701</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="4">
+        <v>45943.977187500001</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="4">
+        <v>45947.977164351898</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="4">
+        <v>45943.977199074099</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="4">
+        <v>45947.977187500001</v>
+      </c>
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="4">
+        <v>45942.977222222202</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="4">
+        <v>45947.977199074099</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="4">
+        <v>45942.977245370399</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="4">
+        <v>45947.977222222202</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="4">
+        <v>45947.977245370399</v>
+      </c>
+      <c r="N11" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="4">
+        <v>45947.977268518502</v>
+      </c>
+      <c r="N12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="4">
+        <v>45947.977291666699</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="4">
+        <v>45942.977337962999</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" s="4">
+        <v>45947.977314814802</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
